--- a/Measurements/Measurement.xlsx
+++ b/Measurements/Measurement.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luwas1\Documents\GitHub\MasterThesis\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B5CA07-5EB5-4C96-9359-A7BF039E9B33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6A8B57-444A-48BF-9CA1-52FBEEF3B6D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="2790" activeTab="1" xr2:uid="{C1B503E5-6F2C-4A2A-BC86-FCECB4C2FA34}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="2790" xr2:uid="{C1B503E5-6F2C-4A2A-BC86-FCECB4C2FA34}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchor Setup" sheetId="1" r:id="rId1"/>
     <sheet name="Position Test 02-28" sheetId="2" r:id="rId2"/>
+    <sheet name="Calibration Test 03-05" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Anchor Setup: Explaination of the experimental setups for measurement tests</t>
   </si>
@@ -54,9 +55,6 @@
     <t>4.79</t>
   </si>
   <si>
-    <t>Graph</t>
-  </si>
-  <si>
     <t>Mean Error</t>
   </si>
   <si>
@@ -85,6 +83,87 @@
   </si>
   <si>
     <t>First 20 Datapoints Removed</t>
+  </si>
+  <si>
+    <t>Calibration Test 03-05</t>
+  </si>
+  <si>
+    <t>Calibration with new Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchor Position 1 (X) </t>
+  </si>
+  <si>
+    <t>Anchor Position 1 (Y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchor Position 2 (X) </t>
+  </si>
+  <si>
+    <t>Anchor Position 2 (Y)</t>
+  </si>
+  <si>
+    <t>Difference   (True-Meas.)</t>
+  </si>
+  <si>
+    <t>True Length</t>
+  </si>
+  <si>
+    <t>Measured Distance</t>
+  </si>
+  <si>
+    <t>Constant:</t>
+  </si>
+  <si>
+    <t>UWB units(ps/step)</t>
+  </si>
+  <si>
+    <t>Original Antenna Delay</t>
+  </si>
+  <si>
+    <t>Settings:</t>
+  </si>
+  <si>
+    <t>PRF</t>
+  </si>
+  <si>
+    <t>64MHz</t>
+  </si>
+  <si>
+    <t>Data Rate</t>
+  </si>
+  <si>
+    <t>6.8Mb/s</t>
+  </si>
+  <si>
+    <t>Preeable Lengh</t>
+  </si>
+  <si>
+    <t>Speed of Light(m/s)</t>
+  </si>
+  <si>
+    <t>m/step</t>
+  </si>
+  <si>
+    <t>Adjustment in steps</t>
+  </si>
+  <si>
+    <t>A_0</t>
+  </si>
+  <si>
+    <t>A_1</t>
+  </si>
+  <si>
+    <t>A_2</t>
+  </si>
+  <si>
+    <t>Δ_01</t>
+  </si>
+  <si>
+    <t>Δ_02</t>
+  </si>
+  <si>
+    <t>Δ_12</t>
   </si>
 </sst>
 </file>
@@ -180,7 +259,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -208,6 +287,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
@@ -629,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F4B3FE-BE28-4C8E-8740-50A37D0061E2}">
-  <dimension ref="C1:K8"/>
+  <dimension ref="C1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,16 +748,16 @@
         <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="3:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -678,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="8">
         <v>0</v>
@@ -698,13 +785,47 @@
       <c r="J8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>7</v>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C8" location="'Position Test 02-28'!A1" display="Position Test 02-28" xr:uid="{59FC7202-C5F2-469D-B708-BA8652D88FD1}"/>
+    <hyperlink ref="C21" location="'Calibration Test 03-05'!A1" display="Calibration Test 03-05" xr:uid="{A636DBAF-BC3B-4B6A-9F15-75253DD0372E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -715,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC3FBA8-C95E-450E-A3EA-58F1ED973113}">
   <dimension ref="E3:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I13" sqref="E3:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,21 +851,21 @@
   <sheetData>
     <row r="3" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="10">
         <v>26.319099999999999</v>
@@ -761,7 +882,7 @@
     </row>
     <row r="5" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="10">
         <v>26.261700000000001</v>
@@ -778,33 +899,33 @@
     </row>
     <row r="6" spans="5:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="12"/>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.25">
       <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="10">
         <v>0.4083</v>
@@ -821,7 +942,7 @@
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="10">
         <v>0.29220000000000002</v>
@@ -838,10 +959,10 @@
     </row>
     <row r="13" spans="5:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -849,4 +970,207 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BD6F73-4EE6-408A-87AF-C9D78A42D3D6}">
+  <dimension ref="B3:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="16">
+        <v>15.65</v>
+      </c>
+      <c r="G4" s="16">
+        <v>299792458</v>
+      </c>
+      <c r="H4">
+        <f>-G4*F4/(10^12)</f>
+        <v>-4.6917519677000001E-3</v>
+      </c>
+      <c r="I4">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14">
+        <f>E8-F8</f>
+        <v>-0.5</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="10">
+        <f>(G8-G10+G9)/(4*H4)</f>
+        <v>53.284999232931639</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>4.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" ref="G9:G10" si="0">E9-F9</f>
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9">
+        <f>(G10-G9+G8)/(4*H4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>4.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10">
+        <f>(G9-G8+G10)/(4*H4)</f>
+        <v>-106.56999846586328</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="2"/>
+      <c r="G16" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Measurements/Measurement.xlsx
+++ b/Measurements/Measurement.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luwas1\Documents\GitHub\MasterThesis\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6A8B57-444A-48BF-9CA1-52FBEEF3B6D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD60A948-3599-46AA-96AA-8DA3E0F2A40F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="2790" xr2:uid="{C1B503E5-6F2C-4A2A-BC86-FCECB4C2FA34}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="2790" activeTab="2" xr2:uid="{C1B503E5-6F2C-4A2A-BC86-FCECB4C2FA34}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchor Setup" sheetId="1" r:id="rId1"/>
     <sheet name="Position Test 02-28" sheetId="2" r:id="rId2"/>
-    <sheet name="Calibration Test 03-05" sheetId="3" r:id="rId3"/>
+    <sheet name="Position Test 03-xx" sheetId="4" r:id="rId3"/>
+    <sheet name="Calibration Test 03-05" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
   <si>
     <t>Anchor Setup: Explaination of the experimental setups for measurement tests</t>
   </si>
@@ -164,6 +165,33 @@
   </si>
   <si>
     <t>Δ_12</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>~Rx-Level (mdB)</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Final Settings</t>
+  </si>
+  <si>
+    <t>A_3</t>
+  </si>
+  <si>
+    <t>A_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Positioning with Particle Filter</t>
+  </si>
+  <si>
+    <t>Position Test 03-xx</t>
   </si>
 </sst>
 </file>
@@ -716,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F4B3FE-BE28-4C8E-8740-50A37D0061E2}">
-  <dimension ref="C1:K22"/>
+  <dimension ref="C1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,6 +815,32 @@
       </c>
       <c r="K8" s="7"/>
     </row>
+    <row r="9" spans="3:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>4.37</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="J9" s="9">
+        <v>6.9</v>
+      </c>
+    </row>
     <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
@@ -822,10 +876,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C8" location="'Position Test 02-28'!A1" display="Position Test 02-28" xr:uid="{59FC7202-C5F2-469D-B708-BA8652D88FD1}"/>
     <hyperlink ref="C21" location="'Calibration Test 03-05'!A1" display="Calibration Test 03-05" xr:uid="{A636DBAF-BC3B-4B6A-9F15-75253DD0372E}"/>
+    <hyperlink ref="C9" location="'Position Test 03-08'!A1" display="Position Test 03-08" xr:uid="{6CFB9012-1202-4A47-B038-BCE2407F48B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -837,7 +897,7 @@
   <dimension ref="E3:I13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="E3:I13"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,11 +1033,154 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AC1E6-C316-4AFE-95F2-0E6F1B846624}">
+  <dimension ref="E6:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BD6F73-4EE6-408A-87AF-C9D78A42D3D6}">
-  <dimension ref="B3:J16"/>
+  <dimension ref="B2:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,9 +1195,17 @@
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -1009,12 +1220,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -1033,17 +1244,20 @@
         <v>16300</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1051,7 +1265,13 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E7" s="14" t="s">
         <v>24</v>
       </c>
@@ -1067,107 +1287,569 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>-92</v>
+      </c>
+      <c r="C8">
+        <v>0.15</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E8">
-        <v>4.5</v>
+        <v>6.74</v>
       </c>
       <c r="F8" s="2">
-        <v>5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G8" s="14">
         <f>E8-F8</f>
-        <v>-0.5</v>
+        <v>-2.0600000000000005</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J8" s="10">
-        <f>(G8-G10+G9)/(4*H4)</f>
-        <v>53.284999232931639</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+        <f>(G8-G10+G9)/(2*H4)</f>
+        <v>241.91389651750958</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>-93</v>
+      </c>
+      <c r="C9">
+        <v>0.33</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E9">
-        <v>4.5</v>
+        <v>6.74</v>
       </c>
       <c r="F9" s="2">
-        <v>4</v>
+        <v>8.92</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" ref="G9:G10" si="0">E9-F9</f>
-        <v>0.5</v>
+        <v>-2.1799999999999997</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J9">
-        <f>(G10-G9+G8)/(4*H4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+        <f>(G10-G9+G8)/(2*H4)</f>
+        <v>197.15449716184722</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>-90</v>
+      </c>
+      <c r="C10">
+        <v>0.04</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E10">
-        <v>4.5</v>
+        <v>6.74</v>
       </c>
       <c r="F10" s="2">
-        <v>3.5</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>-1.9700000000000006</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J10">
-        <f>(G9-G8+G10)/(4*H4)</f>
-        <v>-106.56999846586328</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+        <f>(G9-G8+G10)/(2*H4)</f>
+        <v>222.73129679365422</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="2"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>6.74</v>
+      </c>
+      <c r="F13" s="2">
+        <v>6.41</v>
+      </c>
+      <c r="G13" s="14">
+        <f>E13-F13</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="10">
+        <f>(G13-G15+G14)/(2*H4)</f>
+        <v>-76.730398895421629</v>
+      </c>
+      <c r="K13">
+        <f>J8+J13</f>
+        <v>165.18349762208794</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>6.74</v>
+      </c>
+      <c r="F14" s="2">
+        <v>6.26</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" ref="G14:G15" si="1">E14-F14</f>
+        <v>0.48000000000000043</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14">
+        <f>(G15-G14+G13)/(2*H4)</f>
+        <v>6.3941999079518492</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:K15" si="2">J9+J14</f>
+        <v>203.54869706979906</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>6.74</v>
+      </c>
+      <c r="F15" s="2">
+        <v>6.65</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <f>(G14-G13+G15)/(2*H4)</f>
+        <v>-25.576799631807209</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>197.15449716184702</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>-90</v>
+      </c>
+      <c r="C18">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4.72</v>
+      </c>
+      <c r="G18" s="14">
+        <f>E18-F18</f>
+        <v>0.28000000000000025</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="10">
+        <f>(G18-G20+G19)/(2*H4)</f>
+        <v>-22.379699677831329</v>
+      </c>
+      <c r="K18">
+        <f>K13+J18</f>
+        <v>142.80379794425662</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0.03</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" ref="G19:G20" si="3">E19-F19</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19">
+        <f>(G20-G19+G18)/(2*H4)</f>
+        <v>-37.299499463052157</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:K20" si="4">K14+J19</f>
+        <v>166.24919760674692</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3.93</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="3"/>
+        <v>1.0699999999999998</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20">
+        <f>(G19-G18+G20)/(2*H4)</f>
+        <v>-190.7602972538952</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>6.3941999079518155</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0.05</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5.05</v>
+      </c>
+      <c r="G23" s="14">
+        <f>E23-F23</f>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="10">
+        <f>(G23-G25+G24)/(2*H4)</f>
+        <v>27.708199601124427</v>
+      </c>
+      <c r="K23">
+        <f>K18+J23</f>
+        <v>170.51199754538104</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>0.04</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5.31</v>
+      </c>
+      <c r="G24" s="14">
+        <f t="shared" ref="G24:G25" si="5">E24-F24</f>
+        <v>-0.30999999999999961</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24">
+        <f>(G25-G24+G23)/(2*H4)</f>
+        <v>-17.051199754538139</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:K25" si="6">K19+J24</f>
+        <v>149.19799785220877</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" si="5"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25">
+        <f>(G24-G23+G25)/(2*H4)</f>
+        <v>38.365199447710715</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>44.759399355662531</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="E27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0.05</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5.09</v>
+      </c>
+      <c r="G28" s="14">
+        <f>E28-F28</f>
+        <v>-8.9999999999999858E-2</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="10">
+        <f>(G28-G30+G29)/(2*H4)</f>
+        <v>42.627999386345252</v>
+      </c>
+      <c r="K28">
+        <f>K23+J28</f>
+        <v>213.13999693172627</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>0.04</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5.31</v>
+      </c>
+      <c r="G29" s="14">
+        <f t="shared" ref="G29:G30" si="7">E29-F29</f>
+        <v>-0.30999999999999961</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29">
+        <f>(G30-G29+G28)/(2*H4)</f>
+        <v>-23.445399662489894</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K30" si="8">K24+J29</f>
+        <v>125.75259818971888</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30">
+        <f>(G29-G28+G30)/(2*H4)</f>
+        <v>23.445399662489894</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>68.204799018152428</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="I35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="I37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Measurements/Measurement.xlsx
+++ b/Measurements/Measurement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luwas1\Documents\GitHub\MasterThesis\Measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD60A948-3599-46AA-96AA-8DA3E0F2A40F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513EF92E-1F2A-4DAE-889F-2D97262763AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="2790" activeTab="2" xr2:uid="{C1B503E5-6F2C-4A2A-BC86-FCECB4C2FA34}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="2790" xr2:uid="{C1B503E5-6F2C-4A2A-BC86-FCECB4C2FA34}"/>
   </bookViews>
   <sheets>
     <sheet name="Anchor Setup" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
   <si>
     <t>Anchor Setup: Explaination of the experimental setups for measurement tests</t>
   </si>
@@ -192,6 +192,36 @@
   </si>
   <si>
     <t>Position Test 03-xx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True Pos. X </t>
+  </si>
+  <si>
+    <t xml:space="preserve">True Pos. Y </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origin. X </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Origin. Y </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First. X </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First. Y </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second. X </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second. Y </t>
+  </si>
+  <si>
+    <t>Third X</t>
+  </si>
+  <si>
+    <t>Third Y</t>
   </si>
 </sst>
 </file>
@@ -746,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F4B3FE-BE28-4C8E-8740-50A37D0061E2}">
   <dimension ref="C1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0AC1E6-C316-4AFE-95F2-0E6F1B846624}">
-  <dimension ref="E6:I16"/>
+  <dimension ref="E6:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,9 +1077,10 @@
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -1063,8 +1094,14 @@
       <c r="I6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1081,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1098,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1106,16 +1143,16 @@
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>7</v>
@@ -1129,8 +1166,32 @@
       <c r="I13" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1147,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1164,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1180,7 +1241,7 @@
   <dimension ref="B2:K38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
